--- a/data/trans_orig/P34E2H-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE004736-91C5-46A7-91DE-985EB79645A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A46210-006B-4E46-9BF4-2436673CA0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30FB6B73-5536-4157-840D-6749DBB636B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E9FDF55-4B77-4B3F-8621-93D312780EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="372">
   <si>
     <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2015 (Tasa respuesta: 24,97%)</t>
   </si>
@@ -86,1042 +86,1069 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>19,44%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>7,02%</t>
+    <t>6,78%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>12,01%</t>
+    <t>12,05%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>6,36%</t>
+    <t>6,71%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>22,21%</t>
+    <t>20,84%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>55,22%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1536,7 +1563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFA0201-B053-4AB8-A2E1-8A5A3A0148CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7B14AA-03E8-4119-8887-C4BA51A8DC9B}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2565,7 +2592,7 @@
         <v>94</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2607,13 @@
         <v>42823</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2595,13 +2622,13 @@
         <v>6389</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -2610,13 +2637,13 @@
         <v>49212</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2658,13 @@
         <v>81804</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -2646,13 +2673,13 @@
         <v>52380</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>131</v>
@@ -2661,13 +2688,13 @@
         <v>134184</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2709,13 @@
         <v>9165</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -2697,13 +2724,13 @@
         <v>12918</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -2942,10 +2969,10 @@
         <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2954,13 +2981,13 @@
         <v>2638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2972,10 +2999,10 @@
         <v>68</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3017,13 @@
         <v>1301</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3005,13 +3032,13 @@
         <v>960</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3026,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3068,13 @@
         <v>6557</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3071,13 +3098,13 @@
         <v>6557</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3119,13 @@
         <v>16484</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -3107,13 +3134,13 @@
         <v>9133</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -3122,13 +3149,13 @@
         <v>25616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3170,13 @@
         <v>56919</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
@@ -3158,13 +3185,13 @@
         <v>17168</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M33" s="7">
         <v>70</v>
@@ -3173,13 +3200,13 @@
         <v>74087</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3221,13 @@
         <v>175675</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H34" s="7">
         <v>128</v>
@@ -3209,13 +3236,13 @@
         <v>135037</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M34" s="7">
         <v>285</v>
@@ -3224,13 +3251,13 @@
         <v>310713</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3272,13 @@
         <v>49516</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3260,13 +3287,13 @@
         <v>42473</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M35" s="7">
         <v>82</v>
@@ -3275,13 +3302,13 @@
         <v>91990</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3364,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B37" s="5">
         <v>9</v>
@@ -3385,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3427,13 @@
         <v>6774</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3415,13 +3442,13 @@
         <v>2071</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -3430,13 +3457,13 @@
         <v>8845</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3514,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3529,13 @@
         <v>3090</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3532,13 +3559,13 @@
         <v>3090</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3580,13 @@
         <v>3171</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3583,13 +3610,13 @@
         <v>3171</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3631,13 @@
         <v>5302</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3619,13 +3646,13 @@
         <v>3950</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M42" s="7">
         <v>9</v>
@@ -3634,13 +3661,13 @@
         <v>9253</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3682,13 @@
         <v>10187</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3670,13 +3697,13 @@
         <v>2007</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M43" s="7">
         <v>11</v>
@@ -3685,10 +3712,10 @@
         <v>12194</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>213</v>
@@ -4029,7 +4056,7 @@
         <v>902</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
@@ -4044,7 +4071,7 @@
         <v>4004</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>247</v>
@@ -4065,7 +4092,7 @@
         <v>3797</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>252</v>
@@ -4095,13 +4122,13 @@
         <v>3797</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4143,13 @@
         <v>5881</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4146,13 +4173,13 @@
         <v>5881</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4194,13 @@
         <v>3542</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="H53" s="7">
         <v>6</v>
@@ -4182,13 +4209,13 @@
         <v>5894</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M53" s="7">
         <v>10</v>
@@ -4197,13 +4224,13 @@
         <v>9436</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4245,13 @@
         <v>11038</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H54" s="7">
         <v>4</v>
@@ -4233,13 +4260,13 @@
         <v>4247</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="M54" s="7">
         <v>15</v>
@@ -4248,13 +4275,13 @@
         <v>15285</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4296,13 @@
         <v>57154</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="H55" s="7">
         <v>24</v>
@@ -4284,13 +4311,13 @@
         <v>27345</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M55" s="7">
         <v>79</v>
@@ -4299,13 +4326,13 @@
         <v>84499</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4347,13 @@
         <v>165709</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H56" s="7">
         <v>127</v>
@@ -4335,13 +4362,13 @@
         <v>133630</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M56" s="7">
         <v>291</v>
@@ -4350,13 +4377,13 @@
         <v>299339</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4398,13 @@
         <v>43497</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H57" s="7">
         <v>44</v>
@@ -4386,13 +4413,13 @@
         <v>47860</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M57" s="7">
         <v>86</v>
@@ -4401,13 +4428,13 @@
         <v>91358</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,7 +4508,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -4490,13 +4517,13 @@
         <v>903</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4505,13 +4532,13 @@
         <v>903</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4553,13 @@
         <v>10112</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H60" s="7">
         <v>4</v>
@@ -4541,13 +4568,13 @@
         <v>3929</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>309</v>
+        <v>87</v>
       </c>
       <c r="M60" s="7">
         <v>13</v>
@@ -4556,13 +4583,13 @@
         <v>14042</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>146</v>
+        <v>314</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4604,13 @@
         <v>3103</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -4592,13 +4619,13 @@
         <v>1728</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="M61" s="7">
         <v>5</v>
@@ -4607,13 +4634,13 @@
         <v>4831</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4655,13 @@
         <v>13294</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -4643,13 +4670,13 @@
         <v>2638</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>318</v>
+        <v>94</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>257</v>
+        <v>322</v>
       </c>
       <c r="M62" s="7">
         <v>16</v>
@@ -4658,13 +4685,13 @@
         <v>15932</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>37</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,10 +4709,10 @@
         <v>73</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4694,13 +4721,13 @@
         <v>960</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M63" s="7">
         <v>12</v>
@@ -4709,13 +4736,13 @@
         <v>12352</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4757,13 @@
         <v>25822</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>71</v>
+        <v>331</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H64" s="7">
         <v>13</v>
@@ -4745,13 +4772,13 @@
         <v>12604</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="M64" s="7">
         <v>38</v>
@@ -4760,13 +4787,13 @@
         <v>38426</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4808,13 @@
         <v>42458</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="H65" s="7">
         <v>18</v>
@@ -4796,13 +4823,13 @@
         <v>18090</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M65" s="7">
         <v>59</v>
@@ -4811,13 +4838,13 @@
         <v>60548</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4859,13 @@
         <v>218375</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H66" s="7">
         <v>69</v>
@@ -4847,13 +4874,13 @@
         <v>71272</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M66" s="7">
         <v>275</v>
@@ -4862,13 +4889,13 @@
         <v>289647</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4910,13 @@
         <v>566613</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H67" s="7">
         <v>420</v>
@@ -4898,13 +4925,13 @@
         <v>434288</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M67" s="7">
         <v>951</v>
@@ -4913,13 +4940,13 @@
         <v>1000901</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>352</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4961,13 @@
         <v>149765</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H68" s="7">
         <v>134</v>
@@ -4949,13 +4976,13 @@
         <v>142086</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M68" s="7">
         <v>270</v>
@@ -4964,13 +4991,13 @@
         <v>291851</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,7 +5053,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E2H-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A46210-006B-4E46-9BF4-2436673CA0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47289EB-4E76-4528-A7B1-7E4F34C1EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E9FDF55-4B77-4B3F-8621-93D312780EF6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83EF9110-948C-42E5-8BEE-7ECA426DF2B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="372">
-  <si>
-    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2015 (Tasa respuesta: 24,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="365">
+  <si>
+    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 24,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,1069 +86,1048 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>16,0%</t>
+    <t>19,88%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>18,68%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>55,22%</t>
-  </si>
-  <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>12,45%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1563,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7B14AA-03E8-4119-8887-C4BA51A8DC9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B1129-C1B8-40E6-B981-68BA4D8C70E3}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2592,7 +2571,7 @@
         <v>94</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2807,13 @@
         <v>903</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2843,13 +2822,13 @@
         <v>903</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,10 +2963,10 @@
         <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2999,10 +2978,10 @@
         <v>68</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2996,13 @@
         <v>1301</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3038,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3047,13 +3026,13 @@
         <v>2261</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3047,13 @@
         <v>6557</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3101,10 +3080,10 @@
         <v>136</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3098,13 @@
         <v>16484</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -3134,13 +3113,13 @@
         <v>9133</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -3149,13 +3128,13 @@
         <v>25616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3149,13 @@
         <v>56919</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
@@ -3185,13 +3164,13 @@
         <v>17168</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M33" s="7">
         <v>70</v>
@@ -3200,13 +3179,13 @@
         <v>74087</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3200,13 @@
         <v>175675</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H34" s="7">
         <v>128</v>
@@ -3236,13 +3215,13 @@
         <v>135037</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M34" s="7">
         <v>285</v>
@@ -3251,13 +3230,13 @@
         <v>310713</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3251,13 @@
         <v>49516</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3287,13 +3266,13 @@
         <v>42473</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M35" s="7">
         <v>82</v>
@@ -3302,13 +3281,13 @@
         <v>91990</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3343,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B37" s="5">
         <v>9</v>
@@ -3412,7 +3391,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3406,13 @@
         <v>6774</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3442,13 +3421,13 @@
         <v>2071</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -3457,13 +3436,13 @@
         <v>8845</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3493,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,10 +3511,10 @@
         <v>136</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3559,13 +3538,13 @@
         <v>3090</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3559,13 @@
         <v>3171</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3610,13 +3589,13 @@
         <v>3171</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3610,13 @@
         <v>5302</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3646,13 +3625,13 @@
         <v>3950</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M42" s="7">
         <v>9</v>
@@ -3661,13 +3640,13 @@
         <v>9253</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3661,13 @@
         <v>10187</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3715,10 +3694,10 @@
         <v>212</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,7 +3712,7 @@
         <v>47344</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>215</v>
@@ -3853,10 +3832,10 @@
         <v>235</v>
       </c>
       <c r="K46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M46" s="7">
         <v>69</v>
@@ -3865,13 +3844,13 @@
         <v>77015</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3906,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B48" s="5">
         <v>9</v>
@@ -3945,7 +3924,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3960,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -3975,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3969,13 @@
         <v>921</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4011,7 +3990,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4020,13 +3999,13 @@
         <v>921</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4020,13 @@
         <v>3103</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -4056,13 +4035,13 @@
         <v>902</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -4071,13 +4050,13 @@
         <v>4004</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4071,13 @@
         <v>3797</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4113,7 +4092,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4122,13 +4101,13 @@
         <v>3797</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4122,13 @@
         <v>5881</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4164,7 +4143,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M52" s="7">
         <v>6</v>
@@ -4173,13 +4152,13 @@
         <v>5881</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4173,13 @@
         <v>3542</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H53" s="7">
         <v>6</v>
@@ -4209,13 +4188,13 @@
         <v>5894</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M53" s="7">
         <v>10</v>
@@ -4224,13 +4203,13 @@
         <v>9436</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4224,13 @@
         <v>11038</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H54" s="7">
         <v>4</v>
@@ -4260,13 +4239,13 @@
         <v>4247</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="M54" s="7">
         <v>15</v>
@@ -4275,13 +4254,13 @@
         <v>15285</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4275,13 @@
         <v>57154</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H55" s="7">
         <v>24</v>
@@ -4311,13 +4290,13 @@
         <v>27345</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M55" s="7">
         <v>79</v>
@@ -4326,13 +4305,13 @@
         <v>84499</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4326,13 @@
         <v>165709</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H56" s="7">
         <v>127</v>
@@ -4362,13 +4341,13 @@
         <v>133630</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M56" s="7">
         <v>291</v>
@@ -4377,13 +4356,13 @@
         <v>299339</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4377,13 @@
         <v>43497</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H57" s="7">
         <v>44</v>
@@ -4413,13 +4392,13 @@
         <v>47860</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M57" s="7">
         <v>86</v>
@@ -4428,13 +4407,13 @@
         <v>91358</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,7 +4487,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -4517,13 +4496,13 @@
         <v>903</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4532,13 +4511,13 @@
         <v>903</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4532,13 @@
         <v>10112</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>309</v>
+        <v>126</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H60" s="7">
         <v>4</v>
@@ -4568,13 +4547,13 @@
         <v>3929</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="M60" s="7">
         <v>13</v>
@@ -4583,13 +4562,13 @@
         <v>14042</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>314</v>
+        <v>142</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4583,13 @@
         <v>3103</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -4619,13 +4598,13 @@
         <v>1728</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="M61" s="7">
         <v>5</v>
@@ -4634,13 +4613,13 @@
         <v>4831</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4634,13 @@
         <v>13294</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -4670,13 +4649,13 @@
         <v>2638</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M62" s="7">
         <v>16</v>
@@ -4685,13 +4664,13 @@
         <v>15932</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4688,10 @@
         <v>73</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4721,13 +4700,13 @@
         <v>960</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M63" s="7">
         <v>12</v>
@@ -4736,13 +4715,13 @@
         <v>12352</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>262</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4736,13 @@
         <v>25822</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H64" s="7">
         <v>13</v>
@@ -4772,13 +4751,13 @@
         <v>12604</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>188</v>
+        <v>331</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M64" s="7">
         <v>38</v>
@@ -4787,13 +4766,13 @@
         <v>38426</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4787,13 @@
         <v>42458</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="G65" s="7" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="H65" s="7">
         <v>18</v>
@@ -4823,13 +4802,13 @@
         <v>18090</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M65" s="7">
         <v>59</v>
@@ -4838,13 +4817,13 @@
         <v>60548</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4838,13 @@
         <v>218375</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H66" s="7">
         <v>69</v>
@@ -4874,13 +4853,13 @@
         <v>71272</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M66" s="7">
         <v>275</v>
@@ -4889,13 +4868,13 @@
         <v>289647</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4889,13 @@
         <v>566613</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H67" s="7">
         <v>420</v>
@@ -4925,13 +4904,13 @@
         <v>434288</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M67" s="7">
         <v>951</v>
@@ -4940,10 +4919,10 @@
         <v>1000901</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>110</v>
@@ -4961,13 +4940,13 @@
         <v>149765</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="H68" s="7">
         <v>134</v>
@@ -4976,13 +4955,13 @@
         <v>142086</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M68" s="7">
         <v>270</v>
@@ -4991,13 +4970,13 @@
         <v>291851</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5032,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E2H-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47289EB-4E76-4528-A7B1-7E4F34C1EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A0EF420-202B-474B-8260-FF01E603C442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83EF9110-948C-42E5-8BEE-7ECA426DF2B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{991EA88A-317A-4485-AA60-222DFF95DBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="365">
-  <si>
-    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 24,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="302">
+  <si>
+    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 98,93%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,166 +74,160 @@
     <t>0%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -242,892 +236,709 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1542,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B1129-C1B8-40E6-B981-68BA4D8C70E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A63270B-218E-433F-8272-740ED80C5E85}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,13 +1747,13 @@
         <v>1008</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -1951,13 +1762,13 @@
         <v>4882</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1783,13 @@
         <v>2980</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1987,13 +1798,13 @@
         <v>851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2002,13 +1813,13 @@
         <v>3831</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +1834,13 @@
         <v>14134</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2038,13 +1849,13 @@
         <v>5318</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -2053,13 +1864,13 @@
         <v>19453</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +1885,13 @@
         <v>17878</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2089,13 +1900,13 @@
         <v>9066</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -2104,13 +1915,13 @@
         <v>26944</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,49 +1930,49 @@
         <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7">
-        <v>3806</v>
+        <v>76641</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>96</v>
+      </c>
+      <c r="I13" s="7">
+        <v>96237</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5599</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>169</v>
+      </c>
+      <c r="N13" s="7">
+        <v>172877</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="7">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9404</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,54 +1981,54 @@
         <v>3</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D14" s="7">
-        <v>43711</v>
+        <v>116546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="I14" s="7">
-        <v>22722</v>
+        <v>113360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="N14" s="7">
-        <v>66433</v>
+        <v>229906</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -2235,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2250,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2265,7 +2076,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2091,13 @@
         <v>2417</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2301,7 +2112,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2310,13 +2121,13 @@
         <v>2417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2352,7 +2163,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2361,13 +2172,13 @@
         <v>827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2193,13 @@
         <v>1995</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2403,7 +2214,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -2412,13 +2223,13 @@
         <v>1995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2454,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2469,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2295,13 @@
         <v>6547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2499,13 +2310,13 @@
         <v>1752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2514,13 +2325,13 @@
         <v>8298</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2346,13 @@
         <v>1768</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2550,13 +2361,13 @@
         <v>1853</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2565,13 +2376,13 @@
         <v>3622</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2397,13 @@
         <v>42823</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2601,13 +2412,13 @@
         <v>6389</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -2616,13 +2427,13 @@
         <v>49212</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2448,13 @@
         <v>81804</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -2652,13 +2463,13 @@
         <v>52380</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>131</v>
@@ -2667,13 +2478,13 @@
         <v>134184</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,49 +2493,49 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="D24" s="7">
-        <v>9165</v>
+        <v>412234</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="7">
+        <v>480</v>
+      </c>
+      <c r="I24" s="7">
+        <v>490794</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="7">
+        <v>880</v>
+      </c>
+      <c r="N24" s="7">
+        <v>903028</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H24" s="7">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12918</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M24" s="7">
-        <v>23</v>
-      </c>
-      <c r="N24" s="7">
-        <v>22084</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,54 +2544,54 @@
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>140</v>
+        <v>531</v>
       </c>
       <c r="D25" s="7">
-        <v>146519</v>
+        <v>549588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="I25" s="7">
-        <v>76119</v>
+        <v>553994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M25" s="7">
-        <v>219</v>
+        <v>1076</v>
       </c>
       <c r="N25" s="7">
-        <v>222638</v>
+        <v>1103582</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -2798,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2807,13 +2618,13 @@
         <v>903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2822,13 +2633,13 @@
         <v>903</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2660,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2858,13 +2669,13 @@
         <v>979</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2873,13 +2684,13 @@
         <v>979</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2915,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2930,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2756,13 @@
         <v>4412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2960,13 +2771,13 @@
         <v>2638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2975,13 +2786,13 @@
         <v>7051</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2807,13 @@
         <v>1301</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3011,13 +2822,13 @@
         <v>960</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3026,13 +2837,13 @@
         <v>2261</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +2858,13 @@
         <v>6557</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3068,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -3077,13 +2888,13 @@
         <v>6557</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +2909,13 @@
         <v>16484</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -3113,13 +2924,13 @@
         <v>9133</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -3128,13 +2939,13 @@
         <v>25616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +2960,13 @@
         <v>56919</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
@@ -3164,13 +2975,13 @@
         <v>17168</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M33" s="7">
         <v>70</v>
@@ -3179,13 +2990,13 @@
         <v>74087</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,16 +3008,16 @@
         <v>157</v>
       </c>
       <c r="D34" s="7">
-        <v>175675</v>
+        <v>175676</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H34" s="7">
         <v>128</v>
@@ -3215,13 +3026,13 @@
         <v>135037</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M34" s="7">
         <v>285</v>
@@ -3230,13 +3041,13 @@
         <v>310713</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,49 +3056,49 @@
         <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>44</v>
+        <v>704</v>
       </c>
       <c r="D35" s="7">
-        <v>49516</v>
+        <v>749832</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H35" s="7">
-        <v>38</v>
+        <v>808</v>
       </c>
       <c r="I35" s="7">
-        <v>42473</v>
+        <v>866258</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M35" s="7">
-        <v>82</v>
+        <v>1512</v>
       </c>
       <c r="N35" s="7">
-        <v>91990</v>
+        <v>1616090</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,54 +3107,54 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
-        <v>281</v>
+        <v>941</v>
       </c>
       <c r="D36" s="7">
-        <v>310865</v>
+        <v>1011181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H36" s="7">
-        <v>198</v>
+        <v>968</v>
       </c>
       <c r="I36" s="7">
-        <v>209290</v>
+        <v>1033075</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M36" s="7">
-        <v>479</v>
+        <v>1909</v>
       </c>
       <c r="N36" s="7">
-        <v>520156</v>
+        <v>2044256</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B37" s="5">
         <v>9</v>
@@ -3361,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3376,7 +3187,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3391,7 +3202,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3217,13 @@
         <v>6774</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3421,13 +3232,13 @@
         <v>2071</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -3436,13 +3247,13 @@
         <v>8845</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,7 +3274,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3478,7 +3289,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3493,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3319,13 @@
         <v>3090</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3529,7 +3340,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -3538,13 +3349,13 @@
         <v>3090</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3370,13 @@
         <v>3171</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3580,7 +3391,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3589,13 +3400,13 @@
         <v>3171</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3421,13 @@
         <v>5302</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3625,13 +3436,13 @@
         <v>3950</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M42" s="7">
         <v>9</v>
@@ -3640,13 +3451,13 @@
         <v>9253</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3472,13 @@
         <v>10187</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3676,13 +3487,13 @@
         <v>2007</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="M43" s="7">
         <v>11</v>
@@ -3691,13 +3502,13 @@
         <v>12194</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3523,13 @@
         <v>47344</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="H44" s="7">
         <v>15</v>
@@ -3727,28 +3538,28 @@
         <v>15053</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="M44" s="7">
         <v>58</v>
       </c>
       <c r="N44" s="7">
-        <v>62397</v>
+        <v>62398</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3574,13 @@
         <v>125546</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H45" s="7">
         <v>102</v>
@@ -3778,13 +3589,13 @@
         <v>104175</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M45" s="7">
         <v>216</v>
@@ -3793,13 +3604,13 @@
         <v>229721</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,49 +3619,49 @@
         <v>0</v>
       </c>
       <c r="C46" s="7">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="D46" s="7">
-        <v>43780</v>
+        <v>548830</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H46" s="7">
-        <v>32</v>
+        <v>602</v>
       </c>
       <c r="I46" s="7">
-        <v>33235</v>
+        <v>647925</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M46" s="7">
-        <v>69</v>
+        <v>1107</v>
       </c>
       <c r="N46" s="7">
-        <v>77015</v>
+        <v>1196755</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,54 +3670,54 @@
         <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>220</v>
+        <v>688</v>
       </c>
       <c r="D47" s="7">
-        <v>245194</v>
+        <v>750244</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H47" s="7">
-        <v>157</v>
+        <v>727</v>
       </c>
       <c r="I47" s="7">
-        <v>160491</v>
+        <v>775181</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M47" s="7">
-        <v>377</v>
+        <v>1415</v>
       </c>
       <c r="N47" s="7">
-        <v>405685</v>
+        <v>1525425</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B48" s="5">
         <v>9</v>
@@ -3924,7 +3735,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3939,7 +3750,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -3954,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3780,13 @@
         <v>921</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3990,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -3999,13 +3810,13 @@
         <v>921</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +3831,13 @@
         <v>3103</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -4035,13 +3846,13 @@
         <v>902</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -4050,13 +3861,13 @@
         <v>4004</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +3882,13 @@
         <v>3797</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4092,7 +3903,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4101,13 +3912,13 @@
         <v>3797</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +3933,13 @@
         <v>5881</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4143,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="M52" s="7">
         <v>6</v>
@@ -4152,13 +3963,13 @@
         <v>5881</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +3984,13 @@
         <v>3542</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="H53" s="7">
         <v>6</v>
@@ -4188,13 +3999,13 @@
         <v>5894</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="M53" s="7">
         <v>10</v>
@@ -4203,13 +4014,13 @@
         <v>9436</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4035,13 @@
         <v>11038</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="H54" s="7">
         <v>4</v>
@@ -4239,13 +4050,13 @@
         <v>4247</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="M54" s="7">
         <v>15</v>
@@ -4254,13 +4065,13 @@
         <v>15285</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>271</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4086,13 @@
         <v>57154</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="H55" s="7">
         <v>24</v>
@@ -4290,13 +4101,13 @@
         <v>27345</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="M55" s="7">
         <v>79</v>
@@ -4305,13 +4116,13 @@
         <v>84499</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4137,13 @@
         <v>165709</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="H56" s="7">
         <v>127</v>
@@ -4341,13 +4152,13 @@
         <v>133630</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="M56" s="7">
         <v>291</v>
@@ -4356,13 +4167,13 @@
         <v>299339</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,49 +4182,49 @@
         <v>0</v>
       </c>
       <c r="C57" s="7">
-        <v>42</v>
+        <v>674</v>
       </c>
       <c r="D57" s="7">
-        <v>43497</v>
+        <v>675973</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="H57" s="7">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="I57" s="7">
-        <v>47860</v>
+        <v>861508</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="M57" s="7">
-        <v>86</v>
+        <v>1461</v>
       </c>
       <c r="N57" s="7">
-        <v>91358</v>
+        <v>1537482</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,49 +4233,49 @@
         <v>3</v>
       </c>
       <c r="C58" s="7">
-        <v>290</v>
+        <v>922</v>
       </c>
       <c r="D58" s="7">
-        <v>294643</v>
+        <v>927119</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H58" s="7">
-        <v>206</v>
+        <v>949</v>
       </c>
       <c r="I58" s="7">
-        <v>219877</v>
+        <v>1033525</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M58" s="7">
-        <v>496</v>
+        <v>1871</v>
       </c>
       <c r="N58" s="7">
-        <v>514520</v>
+        <v>1960644</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -4496,13 +4307,13 @@
         <v>903</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4511,13 +4322,13 @@
         <v>903</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4343,13 @@
         <v>10112</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="H60" s="7">
         <v>4</v>
@@ -4547,13 +4358,13 @@
         <v>3929</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M60" s="7">
         <v>13</v>
@@ -4562,13 +4373,13 @@
         <v>14042</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>308</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4394,13 @@
         <v>3103</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>309</v>
+        <v>118</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -4598,13 +4409,13 @@
         <v>1728</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="M61" s="7">
         <v>5</v>
@@ -4613,13 +4424,13 @@
         <v>4831</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4445,13 @@
         <v>13294</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -4649,13 +4460,13 @@
         <v>2638</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="M62" s="7">
         <v>16</v>
@@ -4664,13 +4475,13 @@
         <v>15932</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4496,13 @@
         <v>11393</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4700,13 +4511,13 @@
         <v>960</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="M63" s="7">
         <v>12</v>
@@ -4715,13 +4526,13 @@
         <v>12352</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>326</v>
+        <v>68</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4547,13 @@
         <v>25822</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>329</v>
+        <v>183</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="H64" s="7">
         <v>13</v>
@@ -4751,13 +4562,13 @@
         <v>12604</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>332</v>
+        <v>185</v>
       </c>
       <c r="M64" s="7">
         <v>38</v>
@@ -4766,13 +4577,13 @@
         <v>38426</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>334</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4598,13 @@
         <v>42458</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>336</v>
+        <v>140</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="H65" s="7">
         <v>18</v>
@@ -4802,13 +4613,13 @@
         <v>18090</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>338</v>
+        <v>229</v>
       </c>
       <c r="M65" s="7">
         <v>59</v>
@@ -4817,13 +4628,13 @@
         <v>60548</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>340</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4649,13 @@
         <v>218375</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="H66" s="7">
         <v>69</v>
@@ -4853,13 +4664,13 @@
         <v>71272</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="M66" s="7">
         <v>275</v>
@@ -4868,13 +4679,13 @@
         <v>289647</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4700,13 @@
         <v>566613</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="H67" s="7">
         <v>420</v>
@@ -4904,13 +4715,13 @@
         <v>434288</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="M67" s="7">
         <v>951</v>
@@ -4919,13 +4730,13 @@
         <v>1000901</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>110</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,49 +4745,49 @@
         <v>0</v>
       </c>
       <c r="C68" s="7">
-        <v>136</v>
+        <v>2356</v>
       </c>
       <c r="D68" s="7">
-        <v>149765</v>
+        <v>2463510</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H68" s="7">
-        <v>134</v>
+        <v>2773</v>
       </c>
       <c r="I68" s="7">
-        <v>142086</v>
+        <v>2962721</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="M68" s="7">
-        <v>270</v>
+        <v>5129</v>
       </c>
       <c r="N68" s="7">
-        <v>291851</v>
+        <v>5426231</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>361</v>
+        <v>169</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,54 +4796,54 @@
         <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>975</v>
+        <v>3195</v>
       </c>
       <c r="D69" s="7">
-        <v>1040933</v>
+        <v>3354678</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H69" s="7">
-        <v>665</v>
+        <v>3304</v>
       </c>
       <c r="I69" s="7">
-        <v>688499</v>
+        <v>3509134</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M69" s="7">
-        <v>1640</v>
+        <v>6499</v>
       </c>
       <c r="N69" s="7">
-        <v>1729432</v>
+        <v>6863812</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
